--- a/PLANILHA.xlsx
+++ b/PLANILHA.xlsx
@@ -145,31 +145,31 @@
     <t>ACOMPANHAMENTO</t>
   </si>
   <si>
-    <t>pica</t>
-  </si>
-  <si>
-    <t>puta</t>
-  </si>
-  <si>
-    <t>picona</t>
-  </si>
-  <si>
-    <t>preta</t>
-  </si>
-  <si>
-    <t>apaga</t>
-  </si>
-  <si>
-    <t>chupa</t>
-  </si>
-  <si>
-    <t>rola</t>
-  </si>
-  <si>
-    <t>torta</t>
-  </si>
-  <si>
-    <t>lagrimas</t>
+    <t>CIP352</t>
+  </si>
+  <si>
+    <t>CIP353</t>
+  </si>
+  <si>
+    <t>CIP354</t>
+  </si>
+  <si>
+    <t>CIP355</t>
+  </si>
+  <si>
+    <t>CIP356</t>
+  </si>
+  <si>
+    <t>CIP357</t>
+  </si>
+  <si>
+    <t>CIP358</t>
+  </si>
+  <si>
+    <t>CIP359</t>
+  </si>
+  <si>
+    <t>CIP360</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
